--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\Python\OOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="AA Bde" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="130">
   <si>
     <t>MRR</t>
   </si>
@@ -423,6 +422,12 @@
   </si>
   <si>
     <t>Needs 75 Hip, 35 Hook helis to lift wihout BMDS</t>
+  </si>
+  <si>
+    <t>Note only 250 T-80 Base models produced</t>
+  </si>
+  <si>
+    <t>1985 soviets had 1900 T-80s in Europe</t>
   </si>
 </sst>
 </file>
@@ -837,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +915,16 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -922,10 +937,10 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,10 +3267,10 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A1:O30"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6943,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM(C2:K2)</f>
+        <f t="shared" ref="B2:B30" si="0">SUM(C2:K2)</f>
         <v>1062</v>
       </c>
       <c r="C2" s="3">
@@ -6979,7 +6994,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C3" s="3"/>
@@ -6999,7 +7014,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C4" s="3"/>
@@ -7019,7 +7034,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="9">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C5" s="3">
@@ -7041,7 +7056,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C6" s="3"/>
@@ -7061,7 +7076,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="9">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="C7" s="3"/>
@@ -7082,7 +7097,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
@@ -7102,7 +7117,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C9" s="3"/>
@@ -7122,7 +7137,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="9">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="3">
@@ -7146,7 +7161,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="9">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
@@ -7166,7 +7181,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="9">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="3"/>
@@ -7188,7 +7203,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="9">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C13" s="3">
@@ -7218,7 +7233,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="9">
-        <f>SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C14" s="3">
@@ -7248,7 +7263,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="9">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C15" s="3">
@@ -7278,7 +7293,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="9">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C16" s="3"/>
@@ -7298,7 +7313,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="D17" s="3">
@@ -7319,7 +7334,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="9">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C18" s="3">
@@ -7343,7 +7358,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="9">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C19" s="3"/>
@@ -7364,7 +7379,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="3"/>
@@ -7379,7 +7394,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="3"/>
@@ -7394,7 +7409,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="3"/>
@@ -7409,7 +7424,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="3"/>
@@ -7424,7 +7439,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="3"/>
@@ -7439,7 +7454,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="3"/>
@@ -7454,7 +7469,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C26" s="3"/>
@@ -7469,7 +7484,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" s="3"/>
@@ -7485,7 +7500,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="9">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C28" s="3"/>
@@ -7501,7 +7516,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="9">
-        <f>SUM(C29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C29" s="3"/>
@@ -7516,7 +7531,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
-        <f>SUM(C30:K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="3"/>
@@ -7588,7 +7603,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM(C2:K2)</f>
+        <f t="shared" ref="B2:B30" si="0">SUM(C2:K2)</f>
         <v>1292</v>
       </c>
       <c r="C2" s="3">
@@ -7625,7 +7640,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(C3:K3)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C3" s="3"/>
@@ -7646,7 +7661,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(C4:K4)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C4" s="3"/>
@@ -7666,7 +7681,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="9">
-        <f>SUM(C5:K5)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C5" s="3">
@@ -7689,7 +7704,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C6" s="3"/>
@@ -7710,7 +7725,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="9">
-        <f>SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="C7" s="3"/>
@@ -7731,7 +7746,7 @@
         <v>106</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" s="3"/>
@@ -7751,7 +7766,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C9" s="3"/>
@@ -7772,7 +7787,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="9">
-        <f>SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="3">
@@ -7796,7 +7811,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="9">
-        <f>SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
@@ -7816,7 +7831,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="9">
-        <f>SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C12" s="3"/>
@@ -7839,7 +7854,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="9">
-        <f>SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C13" s="3">
@@ -7870,7 +7885,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="9">
-        <f>SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C14" s="3">
@@ -7901,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="9">
-        <f>SUM(C15:K15)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C15" s="3">
@@ -7932,7 +7947,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="9">
-        <f>SUM(C16:K16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C16" s="3"/>
@@ -7952,7 +7967,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <f>SUM(C17:K17)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D17" s="3">
@@ -7974,7 +7989,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="9">
-        <f>SUM(C18:K18)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="3">
@@ -7999,7 +8014,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="9">
-        <f>SUM(C19:K19)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="3"/>
@@ -8021,7 +8036,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
-        <f>SUM(C20:K20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="3"/>
@@ -8036,7 +8051,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
-        <f>SUM(C21:K21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="3"/>
@@ -8051,7 +8066,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <f>SUM(C22:K22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C22" s="3"/>
@@ -8066,7 +8081,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
-        <f>SUM(C23:K23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="3"/>
@@ -8081,7 +8096,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <f>SUM(C24:K24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24" s="3"/>
@@ -8096,7 +8111,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
-        <f>SUM(C25:K25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C25" s="3"/>
@@ -8111,7 +8126,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
-        <f>SUM(C26:K26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C26" s="3"/>
@@ -8126,7 +8141,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
-        <f>SUM(C27:K27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" s="3"/>
@@ -8142,7 +8157,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="9">
-        <f>SUM(C28:K28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C28" s="3"/>
@@ -8158,7 +8173,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="9">
-        <f>SUM(C29:K29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C29" s="3"/>
@@ -8173,7 +8188,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
-        <f>SUM(C30:K30)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C30" s="3"/>
@@ -8239,7 +8254,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="B2:B19" si="0">SUM(C2:I2)</f>
         <v>504</v>
       </c>
       <c r="C2" s="3">
@@ -8269,7 +8284,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C3" s="3"/>
@@ -8287,7 +8302,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C4" s="3">
@@ -8309,7 +8324,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="9">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" s="3"/>
@@ -8327,7 +8342,7 @@
         <v>113</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM(C6:I6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -8345,7 +8360,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="9">
-        <f>SUM(C7:I7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" s="3">
@@ -8371,7 +8386,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C8" s="3">
@@ -8399,7 +8414,7 @@
         <v>93</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="3"/>
@@ -8417,7 +8432,7 @@
         <v>56</v>
       </c>
       <c r="B10" s="9">
-        <f>SUM(C10:I10)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C10" s="3"/>
@@ -8437,7 +8452,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="9">
-        <f>SUM(C11:I11)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C11" s="3">
@@ -8465,7 +8480,7 @@
         <v>114</v>
       </c>
       <c r="B12" s="9">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C12" s="3"/>
@@ -8480,7 +8495,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="3"/>
@@ -8493,7 +8508,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="3"/>
@@ -8506,7 +8521,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <f>SUM(C15:I15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="3"/>
@@ -8519,7 +8534,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
-        <f>SUM(C16:I16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C16" s="3"/>
@@ -8532,7 +8547,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
-        <f>SUM(C17:I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="3"/>
@@ -8544,7 +8559,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <f>SUM(C18:I18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C18" s="3"/>
@@ -8557,7 +8572,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
-        <f>SUM(C19:I19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="3"/>
@@ -8621,7 +8636,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9">
-        <f>SUM(C2:I2)</f>
+        <f t="shared" ref="B2:B18" si="0">SUM(C2:I2)</f>
         <v>474</v>
       </c>
       <c r="C2" s="3">
@@ -8651,7 +8666,7 @@
         <v>117</v>
       </c>
       <c r="B3" s="9">
-        <f>SUM(C3:I3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C3" s="3"/>
@@ -8669,7 +8684,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="9">
-        <f>SUM(C4:I4)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C4" s="3">
@@ -8691,7 +8706,7 @@
         <v>113</v>
       </c>
       <c r="B5" s="9">
-        <f>SUM(C5:I5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C5" s="3">
@@ -8711,7 +8726,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="9">
-        <f>SUM(C6:I6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C6" s="3">
@@ -8737,7 +8752,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="9">
-        <f>SUM(C7:I7)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C7" s="3">
@@ -8765,7 +8780,7 @@
         <v>93</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM(C8:I8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
@@ -8783,7 +8798,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM(C9:I9)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C9" s="3"/>
@@ -8803,7 +8818,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="9">
-        <f>SUM(C10:I10)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C10" s="3">
@@ -8831,7 +8846,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="9">
-        <f>SUM(C11:I11)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C11" s="3"/>
@@ -8846,7 +8861,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
-        <f>SUM(C12:I12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="3"/>
@@ -8859,7 +8874,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <f>SUM(C13:I13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="3"/>
@@ -8872,7 +8887,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
-        <f>SUM(C14:I14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C14" s="3"/>
@@ -8885,7 +8900,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <f>SUM(C15:I15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="3"/>
@@ -8898,7 +8913,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
-        <f>SUM(C16:I16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
@@ -8910,7 +8925,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
-        <f>SUM(C17:I17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C17" s="3"/>
@@ -8923,7 +8938,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
-        <f>SUM(C18:I18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C18" s="3"/>
@@ -8943,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -8997,7 +9012,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="9">
-        <f t="shared" ref="B3:B19" si="0">SUM(C3:K3)</f>
+        <f t="shared" ref="B3:B17" si="0">SUM(C3:K3)</f>
         <v>18</v>
       </c>
       <c r="C3" s="3">

--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +940,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:E17"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,10 +3267,10 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5528,7 +5528,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5591,6 +5591,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="3">
+        <f>405</f>
         <v>405</v>
       </c>
       <c r="E2" s="3">
@@ -7554,7 +7555,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8210,8 +8211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="SAM (SA6)" sheetId="7" r:id="rId7"/>
     <sheet name="SAM (SA8)" sheetId="8" r:id="rId8"/>
     <sheet name="AA Bde" sheetId="9" r:id="rId9"/>
+    <sheet name="Recce Btn" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="133">
   <si>
     <t>MRR</t>
   </si>
@@ -428,6 +429,15 @@
   </si>
   <si>
     <t>1985 soviets had 1900 T-80s in Europe</t>
+  </si>
+  <si>
+    <t>Personnel ea</t>
+  </si>
+  <si>
+    <t>Recce Battalion</t>
+  </si>
+  <si>
+    <t>Ural 375 POL</t>
   </si>
 </sst>
 </file>
@@ -438,7 +448,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +465,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -494,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +536,16 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -845,7 +873,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,6 +957,396 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>285</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>285</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:J2" si="0">SUMPRODUCT(E3:E54,$B$3:$B$54)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(K3:K54,$B$3:$B$54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C16" si="1">SUM(D3:P3)</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <f>SUM(D8:P8)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <f>2+4+13</f>
+        <v>19</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>17</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -937,10 +1355,10 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B33"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,10 +3685,10 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22:B30"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,10 +5943,10 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24:B27"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6910,7 +7328,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,7 +7973,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8211,8 +8629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,7 +9012,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="SAM (SA8)" sheetId="8" r:id="rId8"/>
     <sheet name="AA Bde" sheetId="9" r:id="rId9"/>
     <sheet name="Recce Btn" sheetId="10" r:id="rId10"/>
+    <sheet name="9 TD" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="161">
   <si>
     <t>MRR</t>
   </si>
@@ -438,6 +439,90 @@
   </si>
   <si>
     <t>Ural 375 POL</t>
+  </si>
+  <si>
+    <t>216 AA Regiment</t>
+  </si>
+  <si>
+    <t>9th Tank Division</t>
+  </si>
+  <si>
+    <t>Headquarters</t>
+  </si>
+  <si>
+    <t>13 IRB</t>
+  </si>
+  <si>
+    <t>688 independent missile btn</t>
+  </si>
+  <si>
+    <t>109 engineer-sapper btn</t>
+  </si>
+  <si>
+    <t>696 Comm btn</t>
+  </si>
+  <si>
+    <t>68 maintenance btn</t>
+  </si>
+  <si>
+    <t>112 chemical defence btn</t>
+  </si>
+  <si>
+    <t>200 medical btn</t>
+  </si>
+  <si>
+    <t>1071 material supply btn</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>SSM</t>
+  </si>
+  <si>
+    <t>SA-6a/SA-6B</t>
+  </si>
+  <si>
+    <t>Helicopter sqdrn</t>
+  </si>
+  <si>
+    <t>Mi-2</t>
+  </si>
+  <si>
+    <t>Mi-8T or Mi-17</t>
+  </si>
+  <si>
+    <t>Mi-8T</t>
+  </si>
+  <si>
+    <t>Mi-24</t>
+  </si>
+  <si>
+    <t>BTR-60</t>
+  </si>
+  <si>
+    <t>KrAZ-255</t>
+  </si>
+  <si>
+    <t>Decontamination truck</t>
+  </si>
+  <si>
+    <t>BRDM-2rkh</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Engineering truck</t>
+  </si>
+  <si>
+    <t>TMM</t>
+  </si>
+  <si>
+    <t>IMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
   </si>
 </sst>
 </file>
@@ -512,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -546,6 +631,9 @@
       <alignment horizontal="left" textRotation="60" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -964,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,6 +1435,1352 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>3144</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D36,$B$3:$B$36)</f>
+        <v>245</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:L2" si="0">SUMPRODUCT(E3:E36,$B$3:$B$36)</f>
+        <v>504</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="M2" s="3">
+        <f>SUMPRODUCT(M3:M36,$B$3:$B$36)</f>
+        <v>175</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2" si="1">SUMPRODUCT(N3:N36,$B$3:$B$36)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C18" si="2">SUM(D3:P3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="14">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7" si="3">SUM(D7:P7)</f>
+        <v>1658</v>
+      </c>
+      <c r="D7" s="3">
+        <v>187</v>
+      </c>
+      <c r="E7" s="3">
+        <v>213</v>
+      </c>
+      <c r="F7" s="3">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3">
+        <v>295</v>
+      </c>
+      <c r="I7" s="3">
+        <v>201</v>
+      </c>
+      <c r="J7" s="3">
+        <v>178</v>
+      </c>
+      <c r="K7" s="3">
+        <v>149</v>
+      </c>
+      <c r="L7" s="3">
+        <v>42</v>
+      </c>
+      <c r="M7" s="3">
+        <v>115</v>
+      </c>
+      <c r="N7" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUM(D9:P9)</f>
+        <v>28</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>25</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="14">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="N10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="N13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <f>SUM(D19:P19)</f>
+        <v>62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <f>SUM(D20:P20)</f>
+        <v>133</v>
+      </c>
+      <c r="D20" s="3">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3">
+        <v>19</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <f>SUM(D21:P21)</f>
+        <v>231</v>
+      </c>
+      <c r="D21" s="3">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>49</v>
+      </c>
+      <c r="K21">
+        <v>58</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(D22:P22)</f>
+        <v>147</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>16</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>120</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <f>SUM(D23:P23)</f>
+        <v>62</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>9</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <f>SUM(D24:P24)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <f>SUM(D25:P25)</f>
+        <v>112</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>80</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <f>SUM(D26:P26)</f>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="L26" s="3">
+        <v>14</v>
+      </c>
+      <c r="M26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9">
+        <f>SUM(D27:P27)</f>
+        <v>11</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="L27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUM(D28:P28)</f>
+        <v>29</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <f>SUM(D29:P29)</f>
+        <v>40</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" ref="D29:G29" si="4">SUM(D30:D39)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" ref="I29:L29" si="5">SUM(I30:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>11</v>
+      </c>
+      <c r="K29" s="3">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" ref="N29" si="6">SUM(N30:N39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <f>SUM(D30:P30)</f>
+        <v>8</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <f>SUM(D31:P31)</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="9">
+        <f>SUM(D32:P32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="9">
+        <f>SUM(D33:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="9">
+        <f>SUM(D34:P34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="9">
+        <f>SUM(D35:P35)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="14"/>
+      <c r="C36" s="9">
+        <f>SUM(D36:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="9">
+        <f>SUM(D37:P37)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="9">
+        <f>SUM(D38:P38)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="9">
+        <f>SUM(D39:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="SAM (SA8)" sheetId="8" r:id="rId8"/>
     <sheet name="AA Bde" sheetId="9" r:id="rId9"/>
     <sheet name="Recce Btn" sheetId="10" r:id="rId10"/>
-    <sheet name="9 TD" sheetId="11" r:id="rId11"/>
+    <sheet name="TD" sheetId="11" r:id="rId11"/>
+    <sheet name="MRD" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="178">
   <si>
     <t>MRR</t>
   </si>
@@ -523,6 +524,57 @@
   </si>
   <si>
     <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>Motor Rifle Division</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>SAM regiment</t>
+  </si>
+  <si>
+    <t>SSM btn</t>
+  </si>
+  <si>
+    <t>AT btn</t>
+  </si>
+  <si>
+    <t>Recce Btn</t>
+  </si>
+  <si>
+    <t>Eng btn</t>
+  </si>
+  <si>
+    <t>Signal btn</t>
+  </si>
+  <si>
+    <t>Mat'l support btn</t>
+  </si>
+  <si>
+    <t>Maintenance btn</t>
+  </si>
+  <si>
+    <t>chemical protection o</t>
+  </si>
+  <si>
+    <t>Medical btn</t>
+  </si>
+  <si>
+    <t>MT-12</t>
+  </si>
+  <si>
+    <t>Mi-24 Hind</t>
+  </si>
+  <si>
+    <t>Mi-8T Hip C/Mi-17</t>
+  </si>
+  <si>
+    <t>Mi-8T Hip D/G</t>
+  </si>
+  <si>
+    <t>BMP-1/2</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1105,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,6 +2833,1010 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="16" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="9">
+        <f>SUM(D2:P2)</f>
+        <v>3320</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D36,$B$3:$B$36)</f>
+        <v>245</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMPRODUCT(E3:E36,$B$3:$B$36)</f>
+        <v>504</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMPRODUCT(F3:F36,$B$3:$B$36)</f>
+        <v>171</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMPRODUCT(G3:G36,$B$3:$B$36)</f>
+        <v>195</v>
+      </c>
+      <c r="H2" s="3">
+        <f>SUMPRODUCT(H3:H36,$B$3:$B$36)</f>
+        <v>340</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUMPRODUCT(I3:I36,$B$3:$B$36)</f>
+        <v>395</v>
+      </c>
+      <c r="J2" s="3">
+        <f>SUMPRODUCT(J3:J36,$B$3:$B$36)</f>
+        <v>272</v>
+      </c>
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(K3:K36,$B$3:$B$36)</f>
+        <v>510</v>
+      </c>
+      <c r="L2" s="3">
+        <f>SUMPRODUCT(L3:L36,$B$3:$B$36)</f>
+        <v>230</v>
+      </c>
+      <c r="M2" s="3">
+        <f>SUMPRODUCT(M3:M36,$B$3:$B$36)</f>
+        <v>83</v>
+      </c>
+      <c r="N2" s="3">
+        <f>SUMPRODUCT(N3:N36,$B$3:$B$36)</f>
+        <v>175</v>
+      </c>
+      <c r="O2" s="3">
+        <f>SUMPRODUCT(O3:O36,$B$3:$B$36)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="14">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C19" si="0">SUM(D3:P3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="14">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="14">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>1667</v>
+      </c>
+      <c r="D9" s="3">
+        <v>187</v>
+      </c>
+      <c r="E9" s="3">
+        <v>201</v>
+      </c>
+      <c r="F9" s="3">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3">
+        <v>38</v>
+      </c>
+      <c r="H9" s="3">
+        <v>85</v>
+      </c>
+      <c r="I9" s="3">
+        <v>297</v>
+      </c>
+      <c r="J9" s="3">
+        <v>201</v>
+      </c>
+      <c r="K9" s="3">
+        <v>190</v>
+      </c>
+      <c r="L9" s="3">
+        <v>130</v>
+      </c>
+      <c r="M9" s="3">
+        <v>22</v>
+      </c>
+      <c r="N9" s="3">
+        <v>107</v>
+      </c>
+      <c r="O9" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(D10:P10)</f>
+        <v>63</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="14">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="14">
+        <v>5</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="O13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="14">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <f>SUM(D20:P20)</f>
+        <v>14</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14">
+        <v>3</v>
+      </c>
+      <c r="C21" s="9">
+        <f>SUM(D21:P21)</f>
+        <v>6</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(D22:P22)</f>
+        <v>65</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>7</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <f>SUM(D23:P23)</f>
+        <v>137</v>
+      </c>
+      <c r="D23" s="3">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3">
+        <v>34</v>
+      </c>
+      <c r="L23" s="3">
+        <v>4</v>
+      </c>
+      <c r="M23" s="3">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <f>SUM(D24:P24)</f>
+        <v>242</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>13</v>
+      </c>
+      <c r="G24" s="3">
+        <v>11</v>
+      </c>
+      <c r="H24" s="3">
+        <v>32</v>
+      </c>
+      <c r="I24" s="3">
+        <v>26</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>49</v>
+      </c>
+      <c r="L24" s="3">
+        <v>58</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="9">
+        <f>SUM(D25:P25)</f>
+        <v>148</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25">
+        <v>120</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="9">
+        <f>SUM(D26:P26)</f>
+        <v>66</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>38</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3">
+        <v>9</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9">
+        <f>SUM(D27:P27)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
+        <f>SUM(D28:P28)</f>
+        <v>112</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>15</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>80</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <f>SUM(D29:P29)</f>
+        <v>22</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="3">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <v>14</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <f>SUM(D30:P30)</f>
+        <v>11</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9">
+        <f>SUM(D31:P31)</f>
+        <v>29</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <f>SUM(D32:P32)</f>
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>15</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <f>SUM(D33:P33)</f>
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_reference/Soviet OOBs.xlsx
+++ b/_reference/Soviet OOBs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="182">
   <si>
     <t>MRR</t>
   </si>
@@ -565,16 +565,28 @@
     <t>MT-12</t>
   </si>
   <si>
-    <t>Mi-24 Hind</t>
-  </si>
-  <si>
-    <t>Mi-8T Hip C/Mi-17</t>
-  </si>
-  <si>
-    <t>Mi-8T Hip D/G</t>
-  </si>
-  <si>
-    <t>BMP-1/2</t>
+    <t>9K52 Luna-M</t>
+  </si>
+  <si>
+    <t>2K12 Kub</t>
+  </si>
+  <si>
+    <t>9K32 Strela-2</t>
+  </si>
+  <si>
+    <t>BRDM-2 9P148</t>
+  </si>
+  <si>
+    <t>Mi-17</t>
+  </si>
+  <si>
+    <t>Mi-24P</t>
+  </si>
+  <si>
+    <t>BMP-1P</t>
+  </si>
+  <si>
+    <t>BTR-70</t>
   </si>
 </sst>
 </file>
@@ -1016,14 +1028,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1050,47 +1062,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -1108,13 +1120,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="9" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>131</v>
       </c>
@@ -1133,7 +1145,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1197,7 +1209,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1219,7 +1231,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1241,7 +1253,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1263,7 +1275,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1307,7 +1319,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -1329,7 +1341,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1348,7 +1360,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1379,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1386,7 +1398,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1406,7 +1418,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1425,7 +1437,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1444,7 +1456,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -1464,7 +1476,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="9"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1474,7 +1486,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="9"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1495,19 +1507,19 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19:M30"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="9" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1605,9 +1617,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B3" s="14">
         <v>3</v>
@@ -1627,9 +1639,9 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B4" s="14">
         <v>12</v>
@@ -1649,9 +1661,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B5" s="14">
         <v>12</v>
@@ -1670,9 +1682,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
@@ -1694,7 +1706,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1782,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1794,7 +1806,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -1817,9 +1829,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B11" s="14">
         <v>5</v>
@@ -1837,7 +1849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -1857,9 +1869,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
@@ -1877,9 +1889,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="B14" s="14">
         <v>2</v>
@@ -1904,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1924,9 +1936,9 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="B16" s="14">
         <v>3</v>
@@ -1944,9 +1956,9 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="B17" s="14">
         <v>2</v>
@@ -1968,7 +1980,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1988,7 +2000,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="9">
-        <f>SUM(D19:P19)</f>
+        <f t="shared" ref="C19:C39" si="4">SUM(D19:P19)</f>
         <v>62</v>
       </c>
       <c r="D19" s="3">
@@ -2030,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="9">
-        <f>SUM(D20:P20)</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="D20" s="3">
@@ -2072,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -2080,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="9">
-        <f>SUM(D21:P21)</f>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="D21" s="3">
@@ -2114,7 +2126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <f>SUM(D22:P22)</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="D22" s="3"/>
@@ -2145,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="9">
-        <f>SUM(D23:P23)</f>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D23" s="3">
@@ -2174,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="9">
-        <f>SUM(D24:P24)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D24" s="3"/>
@@ -2194,7 +2206,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9">
-        <f>SUM(D25:P25)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="D25" s="3">
@@ -2236,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="9">
-        <f>SUM(D26:P26)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D26" s="3"/>
@@ -2262,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="9">
-        <f>SUM(D27:P27)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D27" s="3"/>
@@ -2287,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="9">
-        <f>SUM(D28:P28)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D28" s="3">
@@ -2326,7 +2338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -2334,11 +2346,11 @@
         <v>1</v>
       </c>
       <c r="C29" s="9">
-        <f>SUM(D29:P29)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" ref="D29:G29" si="4">SUM(D30:D39)</f>
+        <f t="shared" ref="D29:G29" si="5">SUM(D30:D39)</f>
         <v>0</v>
       </c>
       <c r="E29" s="3">
@@ -2348,14 +2360,14 @@
         <v>2</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>15</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" ref="I29:L29" si="5">SUM(I30:I39)</f>
+        <f t="shared" ref="I29:L29" si="6">SUM(I30:I39)</f>
         <v>0</v>
       </c>
       <c r="J29" s="3">
@@ -2365,18 +2377,18 @@
         <v>8</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>3</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ref="N29" si="6">SUM(N30:N39)</f>
+        <f t="shared" ref="N29" si="7">SUM(N30:N39)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>158</v>
       </c>
@@ -2384,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="9">
-        <f>SUM(D30:P30)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D30" s="3"/>
@@ -2396,7 +2408,7 @@
       <c r="I30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="9">
-        <f>SUM(D31:P31)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D31" s="3"/>
@@ -2416,10 +2428,10 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B32" s="14"/>
       <c r="C32" s="9">
-        <f>SUM(D32:P32)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="3"/>
@@ -2429,10 +2441,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B33" s="14"/>
       <c r="C33" s="9">
-        <f>SUM(D33:P33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D33" s="3"/>
@@ -2442,10 +2454,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B34" s="14"/>
       <c r="C34" s="9">
-        <f>SUM(D34:P34)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D34" s="3"/>
@@ -2454,10 +2466,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" s="14"/>
       <c r="C35" s="9">
-        <f>SUM(D35:P35)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D35" s="3"/>
@@ -2466,10 +2478,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" s="14"/>
       <c r="C36" s="9">
-        <f>SUM(D36:P36)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D36" s="3"/>
@@ -2478,10 +2490,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B37" s="14"/>
       <c r="C37" s="9">
-        <f>SUM(D37:P37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D37" s="3"/>
@@ -2490,21 +2502,21 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C38" s="9">
-        <f>SUM(D38:P38)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C39" s="9">
-        <f>SUM(D39:P39)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -2534,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2578,7 +2590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>148</v>
       </c>
@@ -2600,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -2622,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2710,7 +2722,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2732,7 +2744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -2743,7 +2755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -2809,7 +2821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>159</v>
       </c>
@@ -2833,6 +2845,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2841,20 +2854,20 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="16" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="3" width="6.73046875" customWidth="1"/>
+    <col min="4" max="16" width="5.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="120" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>161</v>
       </c>
@@ -2901,7 +2914,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2911,63 +2924,63 @@
         <v>3320</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D36,$B$3:$B$36)</f>
+        <f t="shared" ref="D2:O2" si="0">SUMPRODUCT(D3:D36,$B$3:$B$36)</f>
         <v>245</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>504</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>395</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(J3:J36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>272</v>
       </c>
       <c r="K2" s="3">
-        <f>SUMPRODUCT(K3:K36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
       <c r="L2" s="3">
-        <f>SUMPRODUCT(L3:L36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="M2" s="3">
-        <f>SUMPRODUCT(M3:M36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
       <c r="N2" s="3">
-        <f>SUMPRODUCT(N3:N36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>175</v>
       </c>
       <c r="O2" s="3">
-        <f>SUMPRODUCT(O3:O36,$B$3:$B$36)</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B3" s="14">
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:C19" si="0">SUM(D3:P3)</f>
+        <f t="shared" ref="C3:C19" si="1">SUM(D3:P3)</f>
         <v>6</v>
       </c>
       <c r="D3" s="3"/>
@@ -2981,15 +2994,15 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B4" s="14">
         <v>12</v>
       </c>
       <c r="C4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D4" s="3"/>
@@ -3003,15 +3016,15 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B5" s="14">
         <v>12</v>
       </c>
       <c r="C5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E5" s="3">
@@ -3023,15 +3036,15 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D6" s="3">
@@ -3047,15 +3060,15 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="B7" s="14">
         <v>3</v>
       </c>
       <c r="C7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D7" s="3"/>
@@ -3072,7 +3085,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D8" s="3"/>
@@ -3094,7 +3107,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -3102,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1667</v>
       </c>
       <c r="D9" s="3">
@@ -3142,7 +3155,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3174,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3182,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D11" s="3">
@@ -3198,7 +3211,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -3206,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D12" s="3"/>
@@ -3218,15 +3231,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" s="14">
         <v>5</v>
       </c>
       <c r="C13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D13" s="3"/>
@@ -3238,15 +3251,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B14" s="14">
         <v>5</v>
       </c>
       <c r="C14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D14" s="3"/>
@@ -3258,15 +3271,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B15" s="14">
         <v>2</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D15" s="3"/>
@@ -3278,15 +3291,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="B16" s="14">
         <v>2</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
@@ -3306,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3314,7 +3327,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D17" s="3"/>
@@ -3325,15 +3338,15 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B18" s="14">
         <v>2</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D18" s="3"/>
@@ -3344,7 +3357,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -3352,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D19" s="3">
@@ -3368,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -3376,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="9">
-        <f>SUM(D20:P20)</f>
+        <f t="shared" ref="C20:C33" si="2">SUM(D20:P20)</f>
         <v>14</v>
       </c>
       <c r="D20" s="3"/>
@@ -3392,7 +3405,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -3400,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="9">
-        <f>SUM(D21:P21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D21" s="3"/>
@@ -3415,7 +3428,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -3423,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <f>SUM(D22:P22)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D22" s="3">
@@ -3460,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -3468,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="9">
-        <f>SUM(D23:P23)</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="D23" s="3">
@@ -3505,7 +3518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="9">
-        <f>SUM(D24:P24)</f>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="D24" s="3">
@@ -3550,7 +3563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -3558,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="9">
-        <f>SUM(D25:P25)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="D25" s="3"/>
@@ -3584,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -3592,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="9">
-        <f>SUM(D26:P26)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="D26" s="3">
@@ -3619,7 +3632,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3627,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="9">
-        <f>SUM(D27:P27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D27" s="3"/>
@@ -3640,7 +3653,7 @@
       <c r="J27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="9">
-        <f>SUM(D28:P28)</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="D28" s="3">
@@ -3682,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="9">
-        <f>SUM(D29:P29)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D29" s="3"/>
@@ -3711,7 +3724,7 @@
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="9">
-        <f>SUM(D30:P30)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D30" s="3"/>
@@ -3736,7 +3749,7 @@
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>157</v>
       </c>
@@ -3744,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="9">
-        <f>SUM(D31:P31)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="D31" s="3">
@@ -3775,7 +3788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -3783,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="9">
-        <f>SUM(D32:P32)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E32">
@@ -3814,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -3822,14 +3835,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="9">
-        <f>SUM(D33:P33)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I34">
         <v>2</v>
       </c>
@@ -3851,14 +3864,14 @@
       <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="15" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -3905,7 +3918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -3953,7 +3966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -3977,7 +3990,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -4001,7 +4014,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4025,7 +4038,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4049,7 +4062,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4073,7 +4086,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4099,7 +4112,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4123,7 +4136,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -4147,7 +4160,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -4171,7 +4184,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4195,7 +4208,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -4229,7 +4242,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4266,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -4281,7 +4294,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -4315,7 +4328,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4339,7 +4352,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -4371,7 +4384,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4395,7 +4408,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -4421,7 +4434,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -4445,7 +4458,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -4469,7 +4482,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -4493,7 +4506,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -4517,7 +4530,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -4553,7 +4566,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -4587,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -4617,7 +4630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4647,7 +4660,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4689,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4719,7 +4732,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
@@ -4743,7 +4756,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
@@ -4767,7 +4780,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -4792,12 +4805,12 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4845,7 +4858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -4869,7 +4882,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -4893,7 +4906,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -4917,7 +4930,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4941,7 +4954,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -4965,7 +4978,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -4991,7 +5004,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -5015,7 +5028,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5039,7 +5052,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -5063,7 +5076,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -5087,7 +5100,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -5121,7 +5134,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -5145,7 +5158,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5173,7 +5186,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -5207,7 +5220,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5231,7 +5244,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5263,7 +5276,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -5287,7 +5300,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -5313,7 +5326,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -5337,7 +5350,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -5361,7 +5374,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -5385,7 +5398,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -5409,7 +5422,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>53</v>
       </c>
@@ -5445,7 +5458,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -5479,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -5509,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -5539,7 +5552,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -5611,7 +5624,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>79</v>
       </c>
@@ -5635,7 +5648,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
@@ -5659,7 +5672,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -5684,7 +5697,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B70" s="9"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -5700,7 +5713,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B71" s="9"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -5716,7 +5729,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B72" s="9"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -5732,7 +5745,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B73" s="9"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -5748,7 +5761,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B74" s="9"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5764,7 +5777,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -5780,7 +5793,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -5796,7 +5809,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B77" s="9"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5812,7 +5825,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B78" s="9"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -5828,7 +5841,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B79" s="9"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5844,7 +5857,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B80" s="9"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5860,7 +5873,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81" s="9"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5876,7 +5889,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82" s="9"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -5892,7 +5905,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83" s="9"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -5908,7 +5921,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84" s="9"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -5924,7 +5937,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85" s="9"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -5940,7 +5953,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86" s="9"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -5956,7 +5969,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87" s="9"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -5972,7 +5985,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88" s="9"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -5988,7 +6001,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89" s="9"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -6004,7 +6017,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90" s="9"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -6020,7 +6033,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="9"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -6036,7 +6049,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="9"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -6052,7 +6065,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="9"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -6068,7 +6081,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="9"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -6084,7 +6097,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95" s="9"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -6100,7 +6113,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96" s="9"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -6116,7 +6129,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97" s="9"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6132,7 +6145,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98" s="9"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -6148,7 +6161,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99" s="9"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -6181,14 +6194,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="15" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="15" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -6235,7 +6248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -6283,7 +6296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6307,7 +6320,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -6331,7 +6344,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -6355,7 +6368,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -6379,7 +6392,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6403,7 +6416,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -6429,7 +6442,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -6453,7 +6466,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -6489,7 +6502,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -6513,7 +6526,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -6541,7 +6554,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -6575,7 +6588,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -6599,7 +6612,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -6633,7 +6646,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6657,7 +6670,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -6683,7 +6696,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -6707,7 +6720,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6731,7 +6744,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -6755,7 +6768,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6794,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -6817,7 +6830,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -6851,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -6881,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -6909,7 +6922,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -6951,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -6981,7 +6994,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -7005,7 +7018,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
@@ -7029,7 +7042,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -7054,12 +7067,12 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7107,7 +7120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -7131,7 +7144,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -7155,7 +7168,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -7179,7 +7192,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -7203,7 +7216,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -7227,7 +7240,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -7253,7 +7266,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -7277,7 +7290,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -7313,7 +7326,7 @@
       </c>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -7337,7 +7350,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -7365,7 +7378,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -7399,7 +7412,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -7423,7 +7436,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -7457,7 +7470,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -7481,7 +7494,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -7507,7 +7520,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -7531,7 +7544,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -7555,7 +7568,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -7579,7 +7592,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -7605,7 +7618,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -7641,7 +7654,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -7705,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -7733,7 +7746,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7775,7 +7788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -7805,7 +7818,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>79</v>
       </c>
@@ -7829,7 +7842,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>80</v>
       </c>
@@ -7853,7 +7866,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -7878,7 +7891,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B63" s="9"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7894,7 +7907,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B64" s="9"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -7910,7 +7923,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B65" s="9"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -7926,7 +7939,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B66" s="9"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -7942,7 +7955,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B67" s="9"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -7958,7 +7971,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B68" s="9"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -7974,7 +7987,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B69" s="9"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -7990,7 +8003,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B70" s="9"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -8006,7 +8019,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B71" s="9"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -8022,7 +8035,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B72" s="9"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -8038,7 +8051,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B73" s="9"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -8054,7 +8067,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B74" s="9"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -8070,7 +8083,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -8086,7 +8099,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -8102,7 +8115,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B77" s="9"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -8118,7 +8131,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B78" s="9"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -8134,7 +8147,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B79" s="9"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -8150,7 +8163,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B80" s="9"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -8166,7 +8179,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81" s="9"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -8182,7 +8195,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82" s="9"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -8198,7 +8211,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83" s="9"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -8214,7 +8227,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84" s="9"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -8230,7 +8243,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85" s="9"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -8246,7 +8259,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86" s="9"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -8262,7 +8275,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87" s="9"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -8278,7 +8291,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88" s="9"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -8294,7 +8307,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89" s="9"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -8310,7 +8323,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90" s="9"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -8326,7 +8339,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="9"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -8342,7 +8355,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="9"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -8358,7 +8371,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="9"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -8374,7 +8387,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="9"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -8390,7 +8403,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95" s="9"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -8406,7 +8419,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96" s="9"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -8439,14 +8452,14 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="1" customWidth="1"/>
-    <col min="3" max="13" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="1" customWidth="1"/>
+    <col min="3" max="13" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="117.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -8487,7 +8500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -8530,7 +8543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8554,7 +8567,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -8576,7 +8589,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -8598,7 +8611,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -8620,7 +8633,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -8642,7 +8655,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -8672,7 +8685,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -8696,7 +8709,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -8726,7 +8739,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -8752,7 +8765,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8774,7 +8787,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -8798,7 +8811,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -8820,7 +8833,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -8842,7 +8855,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -8864,7 +8877,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -8886,7 +8899,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -8918,7 +8931,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -8948,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -8978,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -9004,7 +9017,7 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -9026,7 +9039,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -9056,7 +9069,7 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -9082,7 +9095,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -9103,7 +9116,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>60</v>
       </c>
@@ -9124,7 +9137,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -9145,12 +9158,12 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -9192,7 +9205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -9216,7 +9229,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -9238,7 +9251,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -9260,7 +9273,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -9282,7 +9295,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -9304,7 +9317,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -9334,7 +9347,7 @@
       </c>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -9358,7 +9371,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -9388,7 +9401,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -9414,7 +9427,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -9436,7 +9449,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -9460,7 +9473,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -9482,7 +9495,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -9504,7 +9517,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -9526,7 +9539,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -9548,7 +9561,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -9580,7 +9593,7 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -9610,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -9640,7 +9653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -9666,7 +9679,7 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -9688,7 +9701,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -9718,7 +9731,7 @@
       </c>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -9744,7 +9757,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>79</v>
       </c>
@@ -9765,7 +9778,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
@@ -9786,7 +9799,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -9821,13 +9834,13 @@
       <selection activeCell="A3" sqref="A3:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="11" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="11" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="119.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>107</v>
       </c>
@@ -9862,7 +9875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9898,7 +9911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -9918,7 +9931,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -9938,7 +9951,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -9960,7 +9973,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9980,7 +9993,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -10001,7 +10014,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -10021,7 +10034,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -10041,7 +10054,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10065,7 +10078,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -10085,7 +10098,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10107,7 +10120,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -10137,7 +10150,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -10167,7 +10180,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -10197,7 +10210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -10217,7 +10230,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -10238,7 +10251,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -10262,7 +10275,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -10286,7 +10299,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10301,7 +10314,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10316,7 +10329,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10331,7 +10344,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10346,7 +10359,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10361,7 +10374,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10376,7 +10389,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10391,7 +10404,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10406,7 +10419,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="9">
         <f t="shared" si="0"/>
@@ -10422,7 +10435,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="9">
         <f t="shared" si="0"/>
@@ -10438,7 +10451,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10466,13 +10479,13 @@
       <selection activeCell="A3" sqref="A3:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="11" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="11" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="119.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="113.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -10507,7 +10520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -10544,7 +10557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -10565,7 +10578,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -10585,7 +10598,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -10608,7 +10621,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -10629,7 +10642,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -10650,7 +10663,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -10670,7 +10683,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -10691,7 +10704,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -10715,7 +10728,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -10735,7 +10748,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10758,7 +10771,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -10789,7 +10802,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -10820,7 +10833,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -10851,7 +10864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -10871,7 +10884,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -10893,7 +10906,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -10918,7 +10931,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -10943,7 +10956,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10958,7 +10971,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10973,7 +10986,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10988,7 +11001,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11003,7 +11016,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B24" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11018,7 +11031,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B25" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11033,7 +11046,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11048,7 +11061,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11063,7 +11076,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="9">
         <f t="shared" si="0"/>
@@ -11079,7 +11092,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="9">
         <f t="shared" si="0"/>
@@ -11095,7 +11108,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11123,13 +11136,13 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="9" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="111.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -11158,7 +11171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11188,7 +11201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -11206,7 +11219,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -11228,7 +11241,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -11246,7 +11259,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -11264,7 +11277,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -11290,7 +11303,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -11318,7 +11331,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -11336,7 +11349,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -11356,7 +11369,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -11384,7 +11397,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -11402,7 +11415,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11415,7 +11428,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11428,7 +11441,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11441,7 +11454,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11454,7 +11467,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11466,7 +11479,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11479,7 +11492,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11505,13 +11518,13 @@
       <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="9" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="9" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="111.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
@@ -11540,7 +11553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11570,7 +11583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -11588,7 +11601,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -11610,7 +11623,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -11630,7 +11643,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -11656,7 +11669,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -11684,7 +11697,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -11702,7 +11715,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -11722,7 +11735,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -11750,7 +11763,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -11768,7 +11781,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11781,7 +11794,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11794,7 +11807,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11807,7 +11820,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11820,7 +11833,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11832,7 +11845,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11845,7 +11858,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11871,13 +11884,13 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="11" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
+    <col min="2" max="11" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="67.900000000000006" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
@@ -11896,7 +11909,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -11916,7 +11929,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -11936,7 +11949,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -11956,7 +11969,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -11976,7 +11989,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -11996,7 +12009,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -12016,7 +12029,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12036,7 +12049,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -12056,7 +12069,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -12076,7 +12089,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -12096,7 +12109,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -12116,7 +12129,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -12136,7 +12149,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12156,7 +12169,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -12176,7 +12189,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -12196,7 +12209,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -12216,7 +12229,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" s="9"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12228,7 +12241,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B19" s="9"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12240,12 +12253,12 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>127</v>
       </c>
